--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1898816.603053036</v>
+        <v>2004890.201205879</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9933587.179114223</v>
+        <v>9948739.094241953</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.9812949757294</v>
+        <v>151.2443464075612</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>23.30946950429373</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.19777004715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>128.877185299644</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>233.8447291789209</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>26.45310935021917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>97.42410252355677</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.2395284792082</v>
+        <v>317.5225527446029</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.3879338969472</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0.304218192574278</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,10 +1347,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>74.56049207329244</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>179.1359327421197</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>140.17601144418</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.41770597126702</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>39.52129633183125</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>58.24570521548602</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.36264995190419</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>156.5238857907025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>61.17550840396451</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>135.5636880601543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.233036999167</v>
+        <v>2078.50437397824</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2078.50437397824</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1313.689047058735</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1059.004558852848</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>769.5873888158875</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>769.5873888158875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>548.7948096723574</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392466</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>299.1179299537353</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993395</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267231</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.03470992366</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653546</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392466</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392466</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.4781294962302</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C7" t="n">
-        <v>504.4781294962302</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D7" t="n">
-        <v>504.4781294962302</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>504.4781294962302</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1538.037935707268</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242374</v>
+        <v>1315.059454902003</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1315.059454902003</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368017</v>
+        <v>1060.374966696116</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368017</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="X7" t="n">
-        <v>906.91917347</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.1265943264699</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.8430895008161</v>
+        <v>698.2614681692852</v>
       </c>
       <c r="C10" t="n">
-        <v>494.9069065729092</v>
+        <v>529.3252852413783</v>
       </c>
       <c r="D10" t="n">
-        <v>344.7902671605734</v>
+        <v>529.3252852413783</v>
       </c>
       <c r="E10" t="n">
-        <v>344.7902671605734</v>
+        <v>381.4121916589852</v>
       </c>
       <c r="F10" t="n">
-        <v>344.7902671605734</v>
+        <v>234.5222441610748</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.8194075357938</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,10 +4983,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="Y10" t="n">
-        <v>845.4915543310558</v>
+        <v>879.9099329995249</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5066,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263239</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698417</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>530.3315352860812</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>382.4184417036881</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057777</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057777</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2304.603751475802</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2085.002286498743</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1795.927059842941</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1541.242571637054</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1251.825401600094</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.825401600094</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.032822456564</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5455,31 +5457,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U16" t="n">
-        <v>1863.561397649904</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="V16" t="n">
-        <v>1608.876909444017</v>
+        <v>1722.776592304617</v>
       </c>
       <c r="W16" t="n">
-        <v>1319.459739407057</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2411.187623003223</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,31 +5767,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2897.617548589219</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661312</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>3817.465313497966</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>3528.048143461006</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>3300.058592562988</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>3079.266013419458</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6312,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300683</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E28" t="n">
-        <v>376.4492432300683</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6415,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2406.192730093489</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2223.337895748393</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2003.736430771334</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1714.661204115532</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1459.976715909645</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1170.559545872684</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>942.5699949746667</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>721.7774158311365</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.57599612053</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>920.6398131926233</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>770.5231737802875</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>622.6100801978944</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>475.720132699984</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>2009.423761029278</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.006590992317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.0170400943</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.22446095077</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>94.56320294380271</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3006.417838136243</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.417838136243</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.301198723907</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.388105141514</v>
+        <v>2440.874393048105</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>2440.874393048105</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
         <v>2337.686731866304</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,13 +7499,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1840.528062267928</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1585.843574062041</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1296.426404025081</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.436853127063</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>847.644273983533</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7661,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>106.4657939283522</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>107.0485416471245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>146.346986892411</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.95754073885467</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>105.8997516911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>87.17534280744522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.0125967582175</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>9.000252501566308</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>84.24553961896675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>63.36835372228666</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>150.6207863290898</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>870023.1299026578</v>
+        <v>877747.6356540499</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>870023.1299026578</v>
+        <v>877747.6356540499</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830042</v>
@@ -26329,31 +26331,31 @@
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309548</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309548</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309548</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26430,7 +26432,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744324</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26451,13 +26453,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-949863.7385470835</v>
+        <v>-768482.4540877489</v>
       </c>
       <c r="C6" t="n">
-        <v>378881.0071805096</v>
+        <v>346269.329488171</v>
       </c>
       <c r="D6" t="n">
-        <v>378881.0071805101</v>
+        <v>186253.8667401718</v>
       </c>
       <c r="E6" t="n">
         <v>129740.3717599977</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.8335673531</v>
+        <v>455152.833567353</v>
       </c>
       <c r="G6" t="n">
         <v>455152.833567353</v>
       </c>
       <c r="H6" t="n">
+        <v>455152.833567353</v>
+      </c>
+      <c r="I6" t="n">
+        <v>455152.8335673529</v>
+      </c>
+      <c r="J6" t="n">
+        <v>287547.6557573704</v>
+      </c>
+      <c r="K6" t="n">
         <v>455152.8335673531</v>
       </c>
-      <c r="I6" t="n">
-        <v>455152.8335673531</v>
-      </c>
-      <c r="J6" t="n">
-        <v>237621.6311700756</v>
-      </c>
-      <c r="K6" t="n">
-        <v>455152.8335673529</v>
-      </c>
       <c r="L6" t="n">
-        <v>455152.8335673534</v>
+        <v>406858.8635591624</v>
       </c>
       <c r="M6" t="n">
         <v>370097.8056318412</v>
       </c>
       <c r="N6" t="n">
+        <v>455152.8335673529</v>
+      </c>
+      <c r="O6" t="n">
         <v>455152.833567353</v>
       </c>
-      <c r="O6" t="n">
-        <v>455152.8335673533</v>
-      </c>
       <c r="P6" t="n">
-        <v>455152.833567353</v>
+        <v>455152.8335673531</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.2596737416836</v>
+        <v>197.9966223098518</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>262.9176846169069</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944099</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>236.3957064713635</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>173.0313165627906</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>118.9679386727121</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>97.23835783818072</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>126.4915721992608</v>
+        <v>52.2085479338661</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>131.637874362081</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.4507967217465</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28150,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28263,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28527,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328829</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,10 +32080,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028594</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>536.3866168795495</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34217,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O42" t="n">
-        <v>301.6445156724565</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34375,13 +34377,13 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>282.8216163968503</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35825,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998944</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>405.0449047962162</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O42" t="n">
-        <v>159.048271228012</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38023,13 +38025,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>140.6875824748321</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2004890.201205879</v>
+        <v>2000794.559701113</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>119.7219561339674</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>151.2443464075612</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.30946950429373</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.8447291789209</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>165.226121848871</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>97.42410252355677</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>317.5225527446029</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
-        <v>0.304218192574278</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462278</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>74.56049207329244</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>140.17601144418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>108.9501037550972</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5981994227929</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>97.98413062224054</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1557845699822</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>32.27552175740353</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>549.0536009814534</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>190.7879023747029</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2078.50437397824</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2078.50437397824</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.365042002428</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>846.3061319081664</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.1463448421176</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>367.1463448421176</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1313.689047058735</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1059.004558852848</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>769.5873888158875</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>769.5873888158875</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>548.7948096723574</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.17188115873</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>684.9061825519796</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537353</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2270.745048352009</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1939.682161008438</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.9577966591559</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>602.021613731249</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1538.037935707268</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1315.059454902003</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1315.059454902003</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>1060.374966696116</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>770.9577966591559</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>770.9577966591559</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>770.9577966591559</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4792,7 +4792,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,13 +4837,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
         <v>2420.282606282261</v>
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.2614681692852</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>529.3252852413783</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.3252852413783</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.4121916589852</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.5222441610748</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.8194075357938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995249</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995249</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9099329995249</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5041,13 +5041,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5080,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5120,7 +5120,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263239</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698417</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860812</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036881</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057777</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057777</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2304.603751475802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T13" t="n">
-        <v>2085.002286498743</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1795.927059842941</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1541.242571637054</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.825401600094</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.825401600094</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.032822456564</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5296,34 +5296,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5457,31 +5457,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510504</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304617</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,16 +5606,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5655,22 +5655,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>371.0633721867255</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>203.8672729016054</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D28" t="n">
-        <v>483.8760050556308</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>483.8760050556308</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>483.8760050556308</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="29">
@@ -6448,25 +6448,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6882,10 +6882,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2588.787486630498</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2440.874393048105</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2440.874393048105</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,16 +7259,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="41">
@@ -7502,16 +7502,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
         <v>631.7012443408906</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460943</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>106.4657939283522</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>146.346986892411</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>31.34460909112669</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9259388694759707</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>63.36835372228666</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>164.3170701178259</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>58.20633287440185</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25842,7 +25842,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196664</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26441,10 +26441,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-768482.4540877489</v>
       </c>
       <c r="C6" t="n">
-        <v>346269.329488171</v>
+        <v>346269.3294881705</v>
       </c>
       <c r="D6" t="n">
-        <v>186253.8667401718</v>
+        <v>186253.8667401717</v>
       </c>
       <c r="E6" t="n">
-        <v>129740.3717599977</v>
+        <v>129392.9925056412</v>
       </c>
       <c r="F6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129962</v>
       </c>
       <c r="G6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129959</v>
       </c>
       <c r="H6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="I6" t="n">
-        <v>455152.8335673529</v>
+        <v>454805.4543129962</v>
       </c>
       <c r="J6" t="n">
-        <v>287547.6557573704</v>
+        <v>287200.2765030136</v>
       </c>
       <c r="K6" t="n">
-        <v>455152.8335673531</v>
+        <v>454805.454312996</v>
       </c>
       <c r="L6" t="n">
-        <v>406858.8635591624</v>
+        <v>406511.4843048053</v>
       </c>
       <c r="M6" t="n">
-        <v>370097.8056318412</v>
+        <v>369750.4263774843</v>
       </c>
       <c r="N6" t="n">
-        <v>455152.8335673529</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="O6" t="n">
-        <v>455152.833567353</v>
+        <v>454805.4543129961</v>
       </c>
       <c r="P6" t="n">
-        <v>455152.8335673531</v>
+        <v>454805.4543129961</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>262.2084139382944</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>197.9966223098518</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>262.9176846169069</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>173.0313165627906</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>85.81912827959101</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>97.23835783818072</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27906,19 +27906,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>73.69725818114418</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>52.2085479338661</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
-        <v>144.4507967217465</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328829</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33979,19 +33979,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>536.3866168795495</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.5225306839445</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884385</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0449047962162</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000794.559701113</v>
+        <v>2002555.090003899</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>119.7219561339674</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>360.9430383844867</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.42775815369515</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>64.98765364255827</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>165.226121848871</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.3135884893127</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>103.2588014327185</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>82.54746605010403</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>177.2979137777578</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.043187116399456</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>45.66054613217651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>152.8697920431064</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>108.9501037550972</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>97.98413062224054</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>53.08838020946239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C2" t="n">
-        <v>549.0536009814534</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7879023747029</v>
+        <v>893.19526818282</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>893.19526818282</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>482.2093633932124</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081664</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>116.8908811564458</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2270.745048352009</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1939.682161008438</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1586.913505738324</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.913505738324</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1586.913505738324</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.715222610545</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.030734404658</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1715.892666966218</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1346.930150025806</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>988.6644514190555</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>602.8761988208112</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>191.8902940312036</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2492.631839006151</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2102.492507030339</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5296,10 +5296,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5418,13 +5418,13 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5600,16 +5600,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,7 +6022,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6077,19 +6077,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>665.866413267029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>517.9533196846359</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>371.0633721867255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>203.8672729016054</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6314,13 +6314,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2393.338457106056</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>572.9069687101817</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>572.9069687101817</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>99.26785128072157</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>31.34460909112669</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>164.3170701178259</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>58.20633287440185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855433.2012196666</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196666</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855433.2012196667</v>
+        <v>855433.2012196665</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855433.2012196665</v>
+        <v>855433.2012196667</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
@@ -26346,7 +26346,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830044</v>
@@ -26355,7 +26355,7 @@
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403383</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309548</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26524,46 +26524,46 @@
         <v>-768482.4540877489</v>
       </c>
       <c r="C6" t="n">
-        <v>346269.3294881705</v>
+        <v>346269.3294881703</v>
       </c>
       <c r="D6" t="n">
-        <v>186253.8667401717</v>
+        <v>186253.8667401716</v>
       </c>
       <c r="E6" t="n">
-        <v>129392.9925056412</v>
+        <v>129705.6338345626</v>
       </c>
       <c r="F6" t="n">
-        <v>454805.4543129962</v>
+        <v>455118.0956419172</v>
       </c>
       <c r="G6" t="n">
-        <v>454805.4543129959</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="H6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="I6" t="n">
-        <v>454805.4543129962</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="J6" t="n">
-        <v>287200.2765030136</v>
+        <v>287512.9178319348</v>
       </c>
       <c r="K6" t="n">
-        <v>454805.454312996</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="L6" t="n">
-        <v>406511.4843048053</v>
+        <v>406824.1256337264</v>
       </c>
       <c r="M6" t="n">
-        <v>369750.4263774843</v>
+        <v>370063.0677064054</v>
       </c>
       <c r="N6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="O6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419173</v>
       </c>
       <c r="P6" t="n">
-        <v>454805.4543129961</v>
+        <v>455118.0956419175</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>262.2084139382944</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>50.60466438846726</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.1568951983996</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>346.5600491303957</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>85.81912827959101</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27830,10 +27830,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>46.91356563188788</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>148.8788418911095</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>328.3742596033494</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>73.69725818114418</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.5414662356953</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33186,7 +33186,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>144.237359508534</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>553.5225306839445</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>6.395920534175052</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
